--- a/数据整理/stocks/A股/创业板/300751-迈为股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300751-迈为股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6101,4 +6102,3214 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8906</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6535</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6445</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5168</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4325</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2376</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1303</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8916</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8662</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8462</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7344</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7263</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5646</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5418</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5368</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5175</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4981</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4939</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4900</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4548</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4005</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3477</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>34.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>34.10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300751-迈为股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300751-迈为股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9312,4 +9313,3060 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>183.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2377</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0938</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8731</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3345</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2229</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0715</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8957</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8726</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8523</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6411</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6094</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4863</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4380</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300751-迈为股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300751-迈为股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12369,4 +12370,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>91</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300751-迈为股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300751-迈为股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12378,7 +12379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12389,17 +12390,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12409,14 +12430,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.94</v>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8118</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -12425,14 +12468,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>83</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.91</v>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -12441,14 +12506,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.03</v>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -12457,13 +12544,3761 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4853</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3972</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3254</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2607</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2573</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1359</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0623</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0259</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8437</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8231</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8028</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6448</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6297</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6254</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6233</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5103</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4691</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3021</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3006</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005121</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国兴利增强债券</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>61.38</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>68.14</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>91</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>36.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300751-迈为股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300751-迈为股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16197,7 +16198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16208,17 +16209,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16228,14 +16249,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>99</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.09</v>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -16244,14 +16287,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>79</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.94</v>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -16260,14 +16325,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>83</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.91</v>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7135</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -16276,14 +16363,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.03</v>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -16292,13 +16401,3735 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4064</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2460</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1448</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8892</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7248</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6922</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6733</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6710</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6710</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6580</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6578</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6497</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6206</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6145</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5384</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5365</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5263</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5259</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4735</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4277</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3558</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3410</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002216</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达量化策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002217</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达量化策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>97.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>83</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>91</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>36.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300751-迈为股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300751-迈为股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20012,7 +20013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20023,17 +20024,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20043,14 +20064,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>99</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.63</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>324.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.6632</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -20059,14 +20102,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>99</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.09</v>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -20075,14 +20140,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>79</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.94</v>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -20091,14 +20178,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>83</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.91</v>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2278</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -20107,14 +20216,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>55</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19.03</v>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -20123,13 +20254,5115 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4427</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3772</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2554</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0877</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0749</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0631</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0255</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0045</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9819</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9816</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9616</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9226</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8592</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8352</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7726</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7462</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7068</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6623</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6388</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6376</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5988</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5823</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5765</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5382</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5337</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4970</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4951</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4407</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4108</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3625</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3479</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014068</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银悦享混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>45.09</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>014218</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>45.09</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>014069</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银悦享混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014219</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>015192</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>136</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>99</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>83</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>91</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>36.86</v>
       </c>
     </row>
